--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="firmas" r:id="rId3" sheetId="1"/>
+    <sheet name="frec_ventas" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>FIRMA</t>
   </si>
@@ -66,6 +67,60 @@
   </si>
   <si>
     <t>NGV</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Marca de Clase</t>
+  </si>
+  <si>
+    <t>Frec.</t>
+  </si>
+  <si>
+    <t>Frec. Rel.</t>
+  </si>
+  <si>
+    <t>Frec. Acu.</t>
+  </si>
+  <si>
+    <t>Rel. Acu.</t>
+  </si>
+  <si>
+    <t>[ 0 , 165.76 )</t>
+  </si>
+  <si>
+    <t>[ 165.76 , 331.52 )</t>
+  </si>
+  <si>
+    <t>[ 331.52 , 497.28 )</t>
+  </si>
+  <si>
+    <t>[ 497.28 , 663.04 )</t>
+  </si>
+  <si>
+    <t>[ 663.04 , 828.8 )</t>
+  </si>
+  <si>
+    <t>[ 828.8 , 994.56 )</t>
+  </si>
+  <si>
+    <t>[ 994.56 , 1160.32 )</t>
+  </si>
+  <si>
+    <t>[ 1160.32 , 1326.08 )</t>
+  </si>
+  <si>
+    <t>[ 1326.08 , 1491.84 )</t>
+  </si>
+  <si>
+    <t>[ 1491.84 , 1657.6 )</t>
+  </si>
+  <si>
+    <t>[ 1657.6 , 1823.36 )</t>
+  </si>
+  <si>
+    <t>[ 1823.36 , 1989.12 )</t>
   </si>
 </sst>
 </file>
@@ -295,4 +350,277 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="n">
+        <v>82.88</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2099.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2099.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="n">
+        <v>248.64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2182.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="n">
+        <v>414.4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2217.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="n">
+        <v>580.16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2234.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>745.9200000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2234.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="n">
+        <v>911.6800000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2241.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1077.44</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2253.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1243.1999999999998</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2253.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1408.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2253.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1574.7200000000003</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2253.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1740.48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2255.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1906.2399999999998</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2256.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="firmas" r:id="rId3" sheetId="1"/>
     <sheet name="frec_ventas" r:id="rId4" sheetId="2"/>
+    <sheet name="contingencia_abs" r:id="rId5" sheetId="3"/>
+    <sheet name="contingencia_rel" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>FIRMA</t>
   </si>
@@ -121,6 +123,42 @@
   </si>
   <si>
     <t>[ 1823.36 , 1989.12 )</t>
+  </si>
+  <si>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIANA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROEMPRESA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEQUEÑA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAULE                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELOY ALFARO                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUAYAQUIL                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILAGRO                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARANJITO                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMBORONDÓN                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA LUCIA                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELASCO IBARRA                                    </t>
   </si>
 </sst>
 </file>
@@ -623,4 +661,282 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72.67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -128,13 +128,13 @@
     <t>CIUDAD</t>
   </si>
   <si>
-    <t xml:space="preserve">MEDIANA        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICROEMPRESA   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEQUEÑA        </t>
+    <t>MEDIANA</t>
+  </si>
+  <si>
+    <t>MICROEMPRESA</t>
+  </si>
+  <si>
+    <t>PEQUEÑA</t>
   </si>
   <si>
     <t xml:space="preserve">DAULE                                             </t>
